--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2905</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5147</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.5153</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0113</v>
+        <v>0.0208</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -482,7 +482,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2905</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -494,19 +494,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5147</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -529,19 +529,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -552,7 +552,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5153</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -564,19 +564,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -587,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0113</v>
+        <v>0.0208</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -660,19 +660,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="G8">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -695,19 +695,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="G9">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -730,16 +730,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -845,16 +845,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.2888</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.5114</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.0113</v>
+        <v>0.0208</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -877,7 +877,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2888</v>
+        <v>0</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -889,19 +889,19 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -912,7 +912,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5114</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -924,19 +924,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.512</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -959,19 +959,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0113</v>
+        <v>0.0208</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1035,16 +1035,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1055,19 +1055,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="G8">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1090,19 +1090,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.0037</v>
       </c>
       <c r="G9">
-        <v>0.0002</v>
+        <v>0</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1125,16 +1125,16 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>0.0168</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.008699999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1319,7 +1319,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1354,7 +1354,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0019</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1380,13 +1380,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1404,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1412,7 +1412,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.0175</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1555,16 +1555,16 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.008699999999999999</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0.0019</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.0019</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1679,7 +1679,7 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0008</v>
+        <v>0.002</v>
       </c>
       <c r="D6">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
       <c r="E6">
-        <v>0.0004</v>
+        <v>0.0011</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
@@ -453,28 +453,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="F2">
-        <v>0.0208</v>
+        <v>0.2643</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1904</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2276</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.0168</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -488,25 +488,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.1664</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.1663</v>
       </c>
       <c r="F3">
-        <v>0.0002</v>
+        <v>0.0013</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.0021</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0016</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -517,10 +517,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1664</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,7 +529,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -552,10 +552,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.1663</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,7 +564,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -587,16 +587,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0208</v>
+        <v>0.2643</v>
       </c>
       <c r="C6">
-        <v>0.0002</v>
+        <v>0.0013</v>
       </c>
       <c r="D6">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,13 +605,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0046</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.0037</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0002</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1904</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.0021</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0046</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2276</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.0016</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -704,7 +704,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0037</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -739,7 +739,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0002</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -762,7 +762,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0168</v>
+        <v>0.0003</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -848,28 +848,28 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="F2">
-        <v>0.0208</v>
+        <v>0.2643</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1904</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2276</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0.0168</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -883,25 +883,25 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.1664</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.1663</v>
       </c>
       <c r="F3">
-        <v>0.0002</v>
+        <v>0.0013</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0.0021</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0016</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -912,10 +912,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1664</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -947,10 +947,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0025</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.1663</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.0208</v>
+        <v>0.2643</v>
       </c>
       <c r="C6">
-        <v>0.0002</v>
+        <v>0.0013</v>
       </c>
       <c r="D6">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0.0001</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,13 +1000,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.0046</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0.0037</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0.0002</v>
+        <v>1</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1052,10 +1052,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1904</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.0021</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1064,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>0.0046</v>
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1087,10 +1087,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.2276</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.0016</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>1</v>
       </c>
       <c r="F9">
-        <v>0.0037</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1122,10 +1122,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>0.0002</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0168</v>
+        <v>0.0003</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1284,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>0.0005999999999999999</v>
+        <v>0.2335</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1319,10 +1319,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.1593</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.0483</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1354,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.0507</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1380,19 +1380,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005999999999999999</v>
+        <v>0.2335</v>
       </c>
       <c r="D6">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="E6">
-        <v>0.0002</v>
+        <v>0.0008</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1415,16 +1415,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.1593</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.1525</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1555,13 +1555,13 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.0001</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.0483</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.0507</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1673,13 +1673,13 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0011</v>
+        <v>0.0069</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0011</v>
+        <v>0.0069</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.002</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0011</v>
+        <v>0.0069</v>
       </c>
       <c r="E6">
-        <v>0.0011</v>
+        <v>0.0069</v>
       </c>
       <c r="F6">
         <v>1</v>

--- a/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
+++ b/out_of_sample_direct_results/dunn_matrix_maxsharpe_out_sample_direct_t189.xlsx
@@ -10,14 +10,15 @@
     <sheet name="annualised_return" sheetId="1" r:id="rId1"/>
     <sheet name="mean_period_return" sheetId="2" r:id="rId2"/>
     <sheet name="sharpe_annualized" sheetId="3" r:id="rId3"/>
-    <sheet name="VaR" sheetId="4" r:id="rId4"/>
+    <sheet name="sharpe_period" sheetId="4" r:id="rId4"/>
+    <sheet name="VaR" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="10">
   <si>
     <t>minvar_ports_maxsharpe</t>
   </si>
@@ -450,31 +451,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0025</v>
+        <v>0.0003</v>
       </c>
       <c r="E2">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="F2">
-        <v>0.2643</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1904</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2276</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -482,28 +483,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1664</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1663</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0013</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -517,10 +518,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0025</v>
+        <v>0.0003</v>
       </c>
       <c r="C4">
-        <v>0.1664</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -529,19 +530,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -552,10 +553,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="C5">
-        <v>0.1663</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -564,19 +565,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -587,16 +588,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2643</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.0013</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -605,13 +606,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -640,16 +641,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -657,22 +658,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1904</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -684,7 +685,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -692,22 +693,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2276</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -719,7 +720,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -727,22 +728,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -754,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -762,7 +763,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -777,16 +778,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -845,31 +846,31 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>0.0025</v>
+        <v>0.0003</v>
       </c>
       <c r="E2">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="F2">
-        <v>0.2643</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.1904</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.2276</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -877,28 +878,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.1664</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1663</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.0013</v>
+        <v>1</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -912,10 +913,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0025</v>
+        <v>0.0003</v>
       </c>
       <c r="C4">
-        <v>0.1664</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -924,19 +925,19 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -947,10 +948,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.0025</v>
+        <v>0.0002</v>
       </c>
       <c r="C5">
-        <v>0.1663</v>
+        <v>0</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -959,19 +960,19 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -982,16 +983,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2643</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>0.0013</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0.0002</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1000,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1035,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1052,22 +1053,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1904</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -1079,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1087,22 +1088,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2276</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1114,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1122,22 +1123,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -1149,7 +1150,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1157,7 +1158,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1172,16 +1173,16 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.307</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1255,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.1312</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1278,16 +1279,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.0038</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.0036</v>
       </c>
       <c r="F3">
-        <v>0.2335</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -1299,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1310,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.0038</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1319,10 +1320,10 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
-        <v>0.1593</v>
+        <v>0</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -1334,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.0483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1345,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.0036</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1354,10 +1355,10 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
       <c r="G5">
-        <v>0.1525</v>
+        <v>0</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1369,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1380,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.2335</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>0.0008</v>
+        <v>0.0001</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -1415,16 +1416,16 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1593</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1525</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -1447,7 +1448,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1312</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1482,7 +1483,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.429</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1509,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1517,7 +1518,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1544,7 +1545,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0221</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1552,16 +1553,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0483</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0507</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1573,10 +1574,10 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0003</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0221</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1650,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0672</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1673,10 +1674,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -1705,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.0048</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1714,7 +1715,7 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>0.0069</v>
+        <v>0.0001</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -1740,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0046</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1749,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.0069</v>
+        <v>0.0001</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -1778,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.0069</v>
+        <v>0.0001</v>
       </c>
       <c r="E6">
-        <v>0.0069</v>
+        <v>0.0001</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -1842,7 +1843,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.0175</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1877,7 +1878,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.0672</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1904,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1912,7 +1913,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1939,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1947,7 +1948,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1968,10 +1969,405 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0002</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0191</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.7118</v>
+      </c>
+      <c r="E3">
+        <v>0.6922</v>
+      </c>
+      <c r="F3">
+        <v>0.1089</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.7118</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.6922</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1089</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0.1005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0.0256</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0.0616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.1005</v>
+      </c>
+      <c r="I11">
+        <v>0.0256</v>
+      </c>
+      <c r="J11">
+        <v>0.0616</v>
       </c>
       <c r="K11">
         <v>1</v>
